--- a/data/trans_bre/P1401-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1401-Estudios-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>0.9648230455441803</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.377092876540248</v>
+        <v>1.377092876540249</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0.5790515632052488</v>
@@ -627,7 +627,7 @@
         <v>0.5272542699158937</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4693244753723871</v>
+        <v>0.4693244753723875</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.2332893568371801</v>
+        <v>-0.29490623549829</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.446164164104372</v>
+        <v>-0.3069000716069978</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.2542622950847474</v>
+        <v>-0.2778185117442927</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.1464151674037468</v>
+        <v>-0.1275814870427254</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.217506023786575</v>
+        <v>-0.1627896466863785</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.0784250288142926</v>
+        <v>-0.07116453192420324</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.228591071806514</v>
+        <v>2.381377499579203</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.430518541031833</v>
+        <v>2.468818885634017</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.835168568925297</v>
+        <v>2.800556619606467</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.894926279926072</v>
+        <v>2.094422538012833</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.100414636350362</v>
+        <v>1.990512812765882</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.336457372675182</v>
+        <v>1.348197324826883</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>0.652381899415667</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.03907652318177399</v>
+        <v>0.03907652318177364</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.6788019654698891</v>
@@ -709,7 +709,7 @@
         <v>1.021000026879467</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02230516076716884</v>
+        <v>0.02230516076716864</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.1747104793925888</v>
+        <v>-0.08788327099778345</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08073651049704944</v>
+        <v>0.04377642667541679</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.7196904175813099</v>
+        <v>-0.6179087654882469</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1986149966544188</v>
+        <v>-0.09047690045861637</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0544782499019204</v>
+        <v>-0.03179693050286001</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3251091579515717</v>
+        <v>-0.2892951731794925</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.479899576963163</v>
+        <v>1.536768962859661</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.40539105199275</v>
+        <v>1.33798881262099</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6700123571981964</v>
+        <v>0.7197753939927641</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.141392230890961</v>
+        <v>2.191112044538669</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.43042171256322</v>
+        <v>3.096341497567342</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5054643920146233</v>
+        <v>0.5479312660554065</v>
       </c>
     </row>
     <row r="10">
@@ -802,20 +802,20 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.4544478910390809</v>
+        <v>-0.4440382863650694</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.255099885363917</v>
+        <v>1.201778646293423</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.645092641723692</v>
+        <v>-2.480950127926092</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="n">
-        <v>0.7191619459170098</v>
+        <v>0.6642178562117405</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.7251534830458864</v>
+        <v>-0.708533275833461</v>
       </c>
     </row>
     <row r="12">
@@ -826,18 +826,20 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.890666842935472</v>
+        <v>1.751982669478082</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.726315278637878</v>
+        <v>4.726411140659039</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03482337839782572</v>
+        <v>0.012397140351714</v>
       </c>
       <c r="F12" s="6" t="inlineStr"/>
-      <c r="G12" s="6" t="inlineStr"/>
+      <c r="G12" s="6" t="n">
+        <v>25.5901981610452</v>
+      </c>
       <c r="H12" s="6" t="n">
-        <v>0.06837151811782674</v>
+        <v>0.04931379895315741</v>
       </c>
     </row>
     <row r="13">
@@ -878,22 +880,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2567303776964703</v>
+        <v>0.2246670678802095</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5553235074396087</v>
+        <v>0.5627404738671498</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.3855450118834045</v>
+        <v>-0.4444078710489711</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.16438301571349</v>
+        <v>0.1602920283940151</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5119786710576472</v>
+        <v>0.5093568995491936</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1621191276487527</v>
+        <v>-0.1857858347099157</v>
       </c>
     </row>
     <row r="15">
@@ -904,22 +906,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.535987973451632</v>
+        <v>1.519722725969991</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.736416320851808</v>
+        <v>1.722156328173159</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.753145781983082</v>
+        <v>0.7820359264299285</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.714957597376658</v>
+        <v>1.774839237654922</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.737791108772794</v>
+        <v>2.682112000650849</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4279751124801263</v>
+        <v>0.4365219111011602</v>
       </c>
     </row>
     <row r="16">
